--- a/data/TestScenario/input_data/hydro_cascades.xlsx
+++ b/data/TestScenario/input_data/hydro_cascades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestScenario/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFEAE51A-003F-4B82-B373-7015C0693CFD}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEBC62CD-44E2-4091-BA15-1F8B74D6F093}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13600" yWindow="-17090" windowWidth="12440" windowHeight="6320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
   <si>
     <t>dummy</t>
   </si>
@@ -52,6 +52,63 @@
     <t>RALCO_4</t>
   </si>
   <si>
+    <t>LAJA_1</t>
+  </si>
+  <si>
+    <t>LAJA_2</t>
+  </si>
+  <si>
+    <t>LAJA_3</t>
+  </si>
+  <si>
+    <t>LAJA_4</t>
+  </si>
+  <si>
+    <t>LAJA_5</t>
+  </si>
+  <si>
+    <t>CANUT_1</t>
+  </si>
+  <si>
+    <t>CANUT_2</t>
+  </si>
+  <si>
+    <t>RAPEL_1</t>
+  </si>
+  <si>
+    <t>MAULE_1</t>
+  </si>
+  <si>
+    <t>MAULE_2</t>
+  </si>
+  <si>
+    <t>MAULE_4</t>
+  </si>
+  <si>
+    <t>MAULE_5</t>
+  </si>
+  <si>
+    <t>MAULE_6</t>
+  </si>
+  <si>
+    <t>MAULE_7</t>
+  </si>
+  <si>
+    <t>MAULE_8</t>
+  </si>
+  <si>
+    <t>MAULE_9</t>
+  </si>
+  <si>
+    <t>MAULE_10</t>
+  </si>
+  <si>
+    <t>MAULE_11</t>
+  </si>
+  <si>
+    <t>MAULE_12</t>
+  </si>
+  <si>
     <t>CACHA_1</t>
   </si>
   <si>
@@ -70,6 +127,39 @@
     <t>TINGUI_4</t>
   </si>
   <si>
+    <t>DUQUECO_1</t>
+  </si>
+  <si>
+    <t>DUQUECO_2</t>
+  </si>
+  <si>
+    <t>ACONCA_1</t>
+  </si>
+  <si>
+    <t>ACONCA_2</t>
+  </si>
+  <si>
+    <t>ACONCA_3</t>
+  </si>
+  <si>
+    <t>ACONCA_4</t>
+  </si>
+  <si>
+    <t>COLORADO_1</t>
+  </si>
+  <si>
+    <t>COLORADO_2</t>
+  </si>
+  <si>
+    <t>PULLINQ_1</t>
+  </si>
+  <si>
+    <t>PILMAIQ_1</t>
+  </si>
+  <si>
+    <t>PILMAIQ_2</t>
+  </si>
+  <si>
     <t>generator_name</t>
   </si>
   <si>
@@ -97,9 +187,69 @@
     <t>Angostura</t>
   </si>
   <si>
+    <t>El Toro (Lago Laja con Polcura)</t>
+  </si>
+  <si>
+    <t>Abanico</t>
+  </si>
+  <si>
     <t>RoRCascade</t>
   </si>
   <si>
+    <t>Antuco (Bocatoma Polcura)</t>
+  </si>
+  <si>
+    <t>Rucue</t>
+  </si>
+  <si>
+    <t>Quilleco</t>
+  </si>
+  <si>
+    <t>Rio Lenca</t>
+  </si>
+  <si>
+    <t>Aux (inflow 2)</t>
+  </si>
+  <si>
+    <t>Canutillar (Lago Chapo)</t>
+  </si>
+  <si>
+    <t>Rapel</t>
+  </si>
+  <si>
+    <t>Cipreses (Laguna Invernada)</t>
+  </si>
+  <si>
+    <t>Los Condores (Laguna Maule)</t>
+  </si>
+  <si>
+    <t>Isla</t>
+  </si>
+  <si>
+    <t>Currillinque</t>
+  </si>
+  <si>
+    <t>Loma Alta</t>
+  </si>
+  <si>
+    <t>Toma Pehuenche (Rio Maule)</t>
+  </si>
+  <si>
+    <t>Pehuenche (Lago Melado)</t>
+  </si>
+  <si>
+    <t>Colbun</t>
+  </si>
+  <si>
+    <t>Machicura</t>
+  </si>
+  <si>
+    <t>Chiburgo</t>
+  </si>
+  <si>
+    <t>San Ignacio</t>
+  </si>
+  <si>
     <t>Chacayes</t>
   </si>
   <si>
@@ -116,6 +266,39 @@
   </si>
   <si>
     <t>Higuera</t>
+  </si>
+  <si>
+    <t>Peuchen</t>
+  </si>
+  <si>
+    <t>Mampil (dos bocatomas, contraembalse)</t>
+  </si>
+  <si>
+    <t>Hornitos</t>
+  </si>
+  <si>
+    <t>Acongagua (Rio Juncal, Rio Blanco)</t>
+  </si>
+  <si>
+    <t>Los Quilos</t>
+  </si>
+  <si>
+    <t>Chacabuquito</t>
+  </si>
+  <si>
+    <t>Alfalfal</t>
+  </si>
+  <si>
+    <t>Maitenes</t>
+  </si>
+  <si>
+    <t>Pullinque (Lago Pullinque)</t>
+  </si>
+  <si>
+    <t>Pilmaiquen (Lago Puyehue)</t>
+  </si>
+  <si>
+    <t>Rucatayo</t>
   </si>
   <si>
     <t>VMinH</t>
@@ -368,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +565,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -667,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,91 +886,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -797,19 +981,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -823,7 +1007,7 @@
       <c r="K2" s="6">
         <v>181.4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <v>1</v>
       </c>
       <c r="M2" s="6">
@@ -886,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -898,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -912,9 +1096,9 @@
       <c r="K3" s="6">
         <v>181.4</v>
       </c>
-      <c r="L3" s="10">
-        <f>I3*J3*9.8/1000</f>
-        <v>9.7710900000000009</v>
+      <c r="L3" s="11">
+        <f>J3*K3*9.8/1000</f>
+        <v>1.5110620000000001</v>
       </c>
       <c r="M3" s="6">
         <v>1033.5</v>
@@ -976,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1002,9 +1186,9 @@
       <c r="K4" s="6">
         <v>125.8</v>
       </c>
-      <c r="L4" s="10">
-        <f>I4*J4*9.8/1000</f>
-        <v>0.37367400000000006</v>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L42" si="0">J4*K4*9.8/1000</f>
+        <v>1.1465412000000001</v>
       </c>
       <c r="M4" s="4">
         <v>32</v>
@@ -1066,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1092,9 +1276,9 @@
       <c r="K5" s="4">
         <v>99</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L12" si="0">I5*J5*9.8/1000</f>
-        <v>44.1</v>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.87318000000000018</v>
       </c>
       <c r="M5" s="4">
         <v>699</v>
@@ -1156,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -1182,9 +1366,9 @@
       <c r="K6" s="4">
         <v>50</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
-        <v>9.9224999999999994</v>
+        <v>0.44100000000000006</v>
       </c>
       <c r="M6" s="4">
         <v>492</v>
@@ -1243,47 +1427,47 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.83116883116883111</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.88</v>
+        <v>432</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5520</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.89900000000000002</v>
       </c>
       <c r="K7" s="4">
-        <v>180</v>
-      </c>
-      <c r="L7" s="10">
+        <v>545</v>
+      </c>
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
-        <v>7.1679999999999999E-3</v>
-      </c>
-      <c r="M7" s="4">
-        <v>112</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
+        <v>4.8015590000000001</v>
+      </c>
+      <c r="M7" s="7">
+        <v>673.11</v>
+      </c>
+      <c r="N7">
+        <v>31.6438642661901</v>
+      </c>
+      <c r="O7">
+        <v>44.874000000000002</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -1306,26 +1490,26 @@
       <c r="V7" s="4">
         <v>0</v>
       </c>
-      <c r="W7" s="4">
-        <v>112</v>
-      </c>
-      <c r="X7" s="4">
-        <v>112</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>112</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>112</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>112</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>112</v>
+      <c r="W7">
+        <v>448.74</v>
+      </c>
+      <c r="X7">
+        <v>448.74</v>
+      </c>
+      <c r="Y7">
+        <v>448.74</v>
+      </c>
+      <c r="Z7">
+        <v>448.74</v>
+      </c>
+      <c r="AA7">
+        <v>448.74</v>
+      </c>
+      <c r="AB7">
+        <v>448.74</v>
+      </c>
+      <c r="AC7">
+        <v>448.74</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -1333,47 +1517,47 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.73356183767806049</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.88</v>
+        <v>2.7E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.83299999999999996</v>
       </c>
       <c r="K8" s="4">
-        <v>153</v>
-      </c>
-      <c r="L8" s="10">
+        <v>147</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
-        <v>6.3262372881355946E-3</v>
+        <v>1.2000198</v>
       </c>
       <c r="M8" s="4">
-        <v>99.8</v>
+        <v>129</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -1396,26 +1580,26 @@
       <c r="V8" s="4">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>99.8</v>
-      </c>
-      <c r="X8">
-        <v>99.8</v>
-      </c>
-      <c r="Y8">
-        <v>99.8</v>
-      </c>
-      <c r="Z8">
-        <v>99.8</v>
-      </c>
-      <c r="AA8">
-        <v>99.8</v>
-      </c>
-      <c r="AB8">
-        <v>99.8</v>
-      </c>
-      <c r="AC8">
-        <v>99.8</v>
+      <c r="W8" s="4">
+        <v>129</v>
+      </c>
+      <c r="X8" s="4">
+        <v>129</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>129</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>129</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>129</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>129</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -1423,44 +1607,44 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.9</v>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.85</v>
       </c>
       <c r="K9" s="4">
-        <v>445</v>
-      </c>
-      <c r="L9" s="10">
+        <v>190</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
-        <v>2.2049999999999999E-3</v>
-      </c>
-      <c r="M9" s="4">
-        <v>40</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
+        <v>1.5827</v>
+      </c>
+      <c r="M9" s="7">
+        <v>478.76</v>
+      </c>
+      <c r="N9">
+        <v>47.048396678610501</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -1486,26 +1670,26 @@
       <c r="V9" s="4">
         <v>0</v>
       </c>
-      <c r="W9" s="4">
-        <v>40</v>
-      </c>
-      <c r="X9" s="4">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>40</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>40</v>
+      <c r="W9">
+        <v>319.17</v>
+      </c>
+      <c r="X9">
+        <v>319.17</v>
+      </c>
+      <c r="Y9">
+        <v>319.17</v>
+      </c>
+      <c r="Z9">
+        <v>319.17</v>
+      </c>
+      <c r="AA9">
+        <v>319.17</v>
+      </c>
+      <c r="AB9">
+        <v>319.17</v>
+      </c>
+      <c r="AC9">
+        <v>319.17</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -1513,44 +1697,44 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.9</v>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.93300000000000005</v>
       </c>
       <c r="K10" s="4">
-        <v>445</v>
-      </c>
-      <c r="L10" s="10">
+        <v>140</v>
+      </c>
+      <c r="L10" s="11">
         <f t="shared" si="0"/>
-        <v>3.3516000000000002E-3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>60</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
+        <v>1.2800760000000002</v>
+      </c>
+      <c r="M10" s="7">
+        <v>267.2</v>
+      </c>
+      <c r="N10">
+        <v>64.489999999999995</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
@@ -1576,26 +1760,26 @@
       <c r="V10" s="4">
         <v>0</v>
       </c>
-      <c r="W10" s="4">
-        <v>60</v>
-      </c>
-      <c r="X10" s="4">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>60</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>60</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>60</v>
+      <c r="W10">
+        <v>178.13</v>
+      </c>
+      <c r="X10">
+        <v>178.13</v>
+      </c>
+      <c r="Y10">
+        <v>178.13</v>
+      </c>
+      <c r="Z10">
+        <v>178.13</v>
+      </c>
+      <c r="AA10">
+        <v>178.13</v>
+      </c>
+      <c r="AB10">
+        <v>178.13</v>
+      </c>
+      <c r="AC10">
+        <v>178.13</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -1603,47 +1787,47 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>1.1879999999999999</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="J11" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="K11" s="4">
-        <v>382</v>
-      </c>
-      <c r="L11" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="K11" s="7">
+        <v>59.35</v>
+      </c>
+      <c r="L11" s="11">
         <f t="shared" si="0"/>
-        <v>9.8960400000000018E-3</v>
-      </c>
-      <c r="M11" s="4">
-        <v>237</v>
+        <v>0.54091590000000012</v>
+      </c>
+      <c r="M11" s="7">
+        <v>70.650000000000006</v>
       </c>
       <c r="N11" s="4">
-        <v>46.938079222258203</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>7.1</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -1666,26 +1850,26 @@
       <c r="V11" s="4">
         <v>0</v>
       </c>
-      <c r="W11" s="4">
-        <v>158</v>
-      </c>
-      <c r="X11" s="4">
-        <v>158</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>158</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>158</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>158</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>158</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>158</v>
+      <c r="W11">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="X11">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="Y11">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="Z11">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="AA11">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="AB11">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="AC11">
+        <v>70.650000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -1693,47 +1877,47 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="8">
-        <v>0.30599999999999999</v>
+      <c r="I12" s="4">
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>0.92</v>
+        <v>0.01</v>
       </c>
       <c r="K12" s="4">
-        <v>344</v>
-      </c>
-      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
         <f t="shared" si="0"/>
-        <v>2.7588959999999998E-3</v>
-      </c>
-      <c r="M12" s="4">
-        <v>232.5</v>
-      </c>
-      <c r="N12">
-        <v>50.0655518183911</v>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
       </c>
       <c r="O12" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
@@ -1756,317 +1940,3017 @@
       <c r="V12" s="4">
         <v>0</v>
       </c>
-      <c r="W12" s="4">
-        <v>155</v>
-      </c>
-      <c r="X12" s="4">
-        <v>155</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>155</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>155</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>155</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>155</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>155</v>
+      <c r="W12">
+        <v>0.01</v>
+      </c>
+      <c r="X12">
+        <v>0.01</v>
+      </c>
+      <c r="Y12">
+        <v>0.01</v>
+      </c>
+      <c r="Z12">
+        <v>0.01</v>
+      </c>
+      <c r="AA12">
+        <v>0.01</v>
+      </c>
+      <c r="AB12">
+        <v>0.01</v>
+      </c>
+      <c r="AC12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1065</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="K13" s="6">
+        <v>212</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9321680000000001</v>
+      </c>
+      <c r="M13" s="7">
+        <v>257.36</v>
+      </c>
+      <c r="N13">
+        <v>56.530918153314701</v>
+      </c>
+      <c r="O13">
+        <v>17.2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>49.5</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>6.6</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>171.57</v>
+      </c>
+      <c r="X13">
+        <v>171.57</v>
+      </c>
+      <c r="Y13">
+        <v>171.57</v>
+      </c>
+      <c r="Z13">
+        <v>171.57</v>
+      </c>
+      <c r="AA13">
+        <v>171.57</v>
+      </c>
+      <c r="AB13">
+        <v>171.57</v>
+      </c>
+      <c r="AC13">
+        <v>171.57</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>68</v>
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="4">
+        <v>130</v>
+      </c>
+      <c r="I14" s="4">
+        <v>565</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K14" s="6">
+        <v>76</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.63308000000000009</v>
+      </c>
+      <c r="M14" s="7">
+        <v>564.96</v>
+      </c>
+      <c r="N14">
+        <v>56.597468747572599</v>
+      </c>
+      <c r="O14" s="4">
+        <v>40</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>49.5</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>6.6</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>376.64</v>
+      </c>
+      <c r="X14">
+        <v>376.64</v>
+      </c>
+      <c r="Y14">
+        <v>376.64</v>
+      </c>
+      <c r="Z14">
+        <v>376.64</v>
+      </c>
+      <c r="AA14">
+        <v>376.64</v>
+      </c>
+      <c r="AB14">
+        <v>376.64</v>
+      </c>
+      <c r="AC14">
+        <v>376.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>180</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="6">
+        <v>370</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9008000000000003</v>
+      </c>
+      <c r="M15" s="7">
+        <v>105.82</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>15</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>49.5</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>6.6</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>105.82</v>
+      </c>
+      <c r="X15">
+        <v>105.82</v>
+      </c>
+      <c r="Y15">
+        <v>105.82</v>
+      </c>
+      <c r="Z15">
+        <v>105.82</v>
+      </c>
+      <c r="AA15">
+        <v>105.82</v>
+      </c>
+      <c r="AB15">
+        <v>105.82</v>
+      </c>
+      <c r="AC15">
+        <v>105.82</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1453.41</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="K16" s="6">
+        <v>720.5</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9382168999999996</v>
+      </c>
+      <c r="M16" s="4">
+        <v>150</v>
+      </c>
+      <c r="N16">
+        <v>53.1247859702178</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>49.5</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>6.6</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>150</v>
+      </c>
+      <c r="X16" s="4">
+        <v>150</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>150</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>150</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.3024</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="6">
+        <v>93</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8202600000000001</v>
+      </c>
+      <c r="M17" s="7">
+        <v>69.88</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>49.5</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>6.6</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>69.88</v>
+      </c>
+      <c r="X17">
+        <v>69.88</v>
+      </c>
+      <c r="Y17">
+        <v>69.88</v>
+      </c>
+      <c r="Z17">
+        <v>69.88</v>
+      </c>
+      <c r="AA17">
+        <v>69.88</v>
+      </c>
+      <c r="AB17">
+        <v>69.88</v>
+      </c>
+      <c r="AC17">
+        <v>69.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.3024</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="K18" s="6">
+        <v>114.3</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0103662800000002</v>
+      </c>
+      <c r="M18" s="7">
+        <v>91.77</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>49.5</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>6.6</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>91.77</v>
+      </c>
+      <c r="X18">
+        <v>91.77</v>
+      </c>
+      <c r="Y18">
+        <v>91.77</v>
+      </c>
+      <c r="Z18">
+        <v>91.77</v>
+      </c>
+      <c r="AA18">
+        <v>91.77</v>
+      </c>
+      <c r="AB18">
+        <v>91.77</v>
+      </c>
+      <c r="AC18">
+        <v>91.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.3024</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.44452800000000003</v>
+      </c>
+      <c r="M19" s="7">
+        <v>39.93</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>49.5</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>6.6</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>39.93</v>
+      </c>
+      <c r="X19">
+        <v>39.93</v>
+      </c>
+      <c r="Y19">
+        <v>39.93</v>
+      </c>
+      <c r="Z19">
+        <v>39.93</v>
+      </c>
+      <c r="AA19">
+        <v>39.93</v>
+      </c>
+      <c r="AB19">
+        <v>39.93</v>
+      </c>
+      <c r="AC19">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>49.5</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>6.6</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.01</v>
+      </c>
+      <c r="X20">
+        <v>0.01</v>
+      </c>
+      <c r="Y20">
+        <v>0.01</v>
+      </c>
+      <c r="Z20">
+        <v>0.01</v>
+      </c>
+      <c r="AA20">
+        <v>0.01</v>
+      </c>
+      <c r="AB20">
+        <v>0.01</v>
+      </c>
+      <c r="AC20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="4">
+        <v>101</v>
+      </c>
+      <c r="I21" s="4">
+        <v>134</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K21" s="4">
+        <v>206</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7159800000000001</v>
+      </c>
+      <c r="M21" s="7">
+        <v>852.45</v>
+      </c>
+      <c r="N21">
+        <v>37.953482342043699</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>49.5</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>6.6</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="X21">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="Y21">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="Z21">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="AA21">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="AB21">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="AC21">
+        <v>568.29999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="4">
+        <v>382</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1578</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K22" s="4">
+        <v>168</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4817600000000002</v>
+      </c>
+      <c r="M22" s="7">
+        <v>709.23</v>
+      </c>
+      <c r="N22">
+        <v>44.688279346728599</v>
+      </c>
+      <c r="O22" s="4">
+        <v>50</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>49.5</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>6.6</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>472.82</v>
+      </c>
+      <c r="X22">
+        <v>472.82</v>
+      </c>
+      <c r="Y22">
+        <v>472.82</v>
+      </c>
+      <c r="Z22">
+        <v>472.82</v>
+      </c>
+      <c r="AA22">
+        <v>472.82</v>
+      </c>
+      <c r="AB22">
+        <v>472.82</v>
+      </c>
+      <c r="AC22">
+        <v>472.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>17</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K23" s="4">
+        <v>37</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31908800000000004</v>
+      </c>
+      <c r="M23" s="7">
+        <v>94.76</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>19</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>49.5</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>6.6</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>94.76</v>
+      </c>
+      <c r="X23">
+        <v>94.76</v>
+      </c>
+      <c r="Y23">
+        <v>94.76</v>
+      </c>
+      <c r="Z23">
+        <v>94.76</v>
+      </c>
+      <c r="AA23">
+        <v>94.76</v>
+      </c>
+      <c r="AB23">
+        <v>94.76</v>
+      </c>
+      <c r="AC23">
+        <v>94.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K24" s="4">
+        <v>120</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="0"/>
+        <v>0.97020000000000006</v>
+      </c>
+      <c r="M24" s="7">
+        <v>19.16</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.9</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>49.5</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>6.6</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>19.16</v>
+      </c>
+      <c r="X24">
+        <v>19.16</v>
+      </c>
+      <c r="Y24">
+        <v>19.16</v>
+      </c>
+      <c r="Z24">
+        <v>19.16</v>
+      </c>
+      <c r="AA24">
+        <v>19.16</v>
+      </c>
+      <c r="AB24">
+        <v>19.16</v>
+      </c>
+      <c r="AC24">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K25" s="4">
+        <v>21</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18995340000000005</v>
+      </c>
+      <c r="M25" s="7">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.7</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>49.5</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>6.6</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="X25">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="Y25">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="Z25">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="AA25">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="AB25">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="AC25">
+        <v>36.909999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.83116883116883111</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K26" s="4">
+        <v>180</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5523200000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>112</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>49.5</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>6.6</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>112</v>
+      </c>
+      <c r="X26" s="4">
+        <v>112</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>112</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>112</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>112</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>112</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.73356183767806049</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K27" s="4">
+        <v>153</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3194720000000002</v>
+      </c>
+      <c r="M27" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>40</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>49.5</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>6.6</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>99.8</v>
+      </c>
+      <c r="X27">
+        <v>99.8</v>
+      </c>
+      <c r="Y27">
+        <v>99.8</v>
+      </c>
+      <c r="Z27">
+        <v>99.8</v>
+      </c>
+      <c r="AA27">
+        <v>99.8</v>
+      </c>
+      <c r="AB27">
+        <v>99.8</v>
+      </c>
+      <c r="AC27">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K28" s="4">
+        <v>445</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9249000000000001</v>
+      </c>
+      <c r="M28" s="4">
+        <v>40</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>49.5</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>6.6</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>40</v>
+      </c>
+      <c r="X28" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>40</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>40</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K29" s="4">
+        <v>445</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9249000000000001</v>
+      </c>
+      <c r="M29" s="4">
+        <v>60</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>49.5</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>6.6</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>60</v>
+      </c>
+      <c r="X29" s="4">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>60</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>60</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>60</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K30" s="4">
+        <v>382</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1820599999999999</v>
+      </c>
+      <c r="M30" s="4">
+        <v>237</v>
+      </c>
+      <c r="N30" s="4">
+        <v>46.938079222258203</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>49.5</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>6.6</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>158</v>
+      </c>
+      <c r="X30" s="4">
+        <v>158</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>158</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>158</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>158</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>158</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="K31" s="4">
+        <v>344</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1015040000000003</v>
+      </c>
+      <c r="M31" s="4">
+        <v>232.5</v>
+      </c>
+      <c r="N31">
+        <v>50.0655518183911</v>
+      </c>
+      <c r="O31" s="4">
+        <v>16</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>49.5</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>6.6</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>155</v>
+      </c>
+      <c r="X31" s="4">
+        <v>155</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>155</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>155</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>155</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>155</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.33696000000000004</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="K32" s="4">
+        <v>236</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="0"/>
+        <v>2.1509040000000006</v>
+      </c>
+      <c r="M32" s="4">
+        <v>77</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>5.1621696000000012</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>49.5</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>6.6</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>77</v>
+      </c>
+      <c r="X32" s="4">
+        <v>77</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>77</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>77</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>77</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K33" s="4">
+        <v>124</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0693760000000001</v>
+      </c>
+      <c r="M33" s="4">
+        <v>49</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>49.5</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>6.6</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>49</v>
+      </c>
+      <c r="X33" s="4">
+        <v>49</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>49</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>49</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>49</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>49</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.19008000000000005</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K34" s="4">
+        <v>550</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="0"/>
+        <v>4.5815000000000001</v>
+      </c>
+      <c r="M34" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>49.5</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>6.6</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>55</v>
+      </c>
+      <c r="X34" s="4">
+        <v>55</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>55</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>55</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>55</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="K35" s="4">
+        <v>654</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6787160000000005</v>
+      </c>
+      <c r="M35" s="4">
+        <v>94</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>49.5</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>6.6</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>94</v>
+      </c>
+      <c r="X35" s="4">
+        <v>94</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>94</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>94</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>94</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>94</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="K36" s="4">
+        <v>227</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7796800000000004</v>
+      </c>
+      <c r="M36" s="4">
+        <v>39</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>49.5</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>6.6</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="4">
+        <v>39</v>
+      </c>
+      <c r="X36" s="4">
+        <v>39</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>39</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>39</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K37" s="4">
+        <v>135</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1907000000000001</v>
+      </c>
+      <c r="M37" s="4">
+        <v>25</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2.5</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>49.5</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>6.6</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>25</v>
+      </c>
+      <c r="X37" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>25</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K38" s="4">
+        <v>720</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9976000000000003</v>
+      </c>
+      <c r="M38" s="4">
+        <v>267</v>
+      </c>
+      <c r="N38">
+        <v>35.668848618883302</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>49.5</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>6.6</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <v>178</v>
+      </c>
+      <c r="X38" s="4">
+        <v>178</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>178</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>178</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>178</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>178</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="4">
+        <v>180</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="0"/>
+        <v>1.323</v>
+      </c>
+      <c r="M39" s="4">
+        <v>30</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>3</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>49.5</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>6.6</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4">
+        <v>30</v>
+      </c>
+      <c r="X39" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>30</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>30</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>30</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4.32</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K40" s="4">
+        <v>48</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42336000000000007</v>
+      </c>
+      <c r="M40" s="4">
+        <v>51</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>49.5</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>6.6</v>
+      </c>
+      <c r="U40" s="4">
+        <v>0</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4">
+        <v>51</v>
+      </c>
+      <c r="X40" s="4">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>51</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>51</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>51</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>230</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="K41" s="4">
+        <v>32</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="0"/>
+        <v>0.26028800000000002</v>
+      </c>
+      <c r="M41" s="4">
+        <v>39</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>20</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>49.5</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>6.6</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>39</v>
+      </c>
+      <c r="X41" s="4">
+        <v>39</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>39</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>39</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>39</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="K42" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31443300000000007</v>
+      </c>
+      <c r="M42" s="4">
+        <v>55</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>15</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>49.5</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>6.6</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>55</v>
+      </c>
+      <c r="X42" s="4">
+        <v>55</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>55</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>55</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>55</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="O50" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="O51" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="O53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="O54" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O57" s="2">
         <v>60</v>
       </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="2">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O58" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O59" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O60" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O61" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O62" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O63" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O66" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O69" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O70" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O27" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O28" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O29" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O30" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O31" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O32" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O33" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O36" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O39" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O40" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O41" s="2">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O71" s="2">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O43" s="2">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O73" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O48" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O49" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O50" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O51" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O59" s="2">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O79" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O80" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O81" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O89" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="15:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O60" s="3">
+    <row r="90" spans="15:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O90" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="15:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="15:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
